--- a/Gestão de OEE/Relatório Manutenção 11-fev-2023.xlsx
+++ b/Gestão de OEE/Relatório Manutenção 11-fev-2023.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaintenanceIndicators\Gestão de OEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BCE758-C368-4D6A-B5F4-8307215866CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D7151AD7-BCD6-4518-96E6-1CBB76CE2148}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Manutenção" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -23,7 +22,7 @@
     <definedName name="Area_de_impresao2">#REF!</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +151,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,7 +166,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8D3B83BE-475D-4497-ADF8-13B78FDAC2C4}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -180,7 +179,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -219,11 +218,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Dados Aux"/>
       <sheetName val="FILTROS "/>
@@ -265,13 +261,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A292A481-0C0F-4206-881E-DC0F4DF4EF04}" name="realtorios" displayName="realtorios" ref="B5:E8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B5:E8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="realtorios" displayName="realtorios" ref="B5:E8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B5:E8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{88B2D15C-75F7-436F-A034-D04AEA77C48B}" name="Data" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4D38C948-BB85-4493-A24E-D76DE5C03E1B}" name="Turno" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{72171530-9F4B-463F-9322-CC337888E655}" name="Tag" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A3322B87-A59C-4919-920A-53D9CF1DEE43}" name="Tempo" dataDxfId="0"/>
+    <tableColumn id="1" name="Data" dataDxfId="3"/>
+    <tableColumn id="4" name="Turno" dataDxfId="2"/>
+    <tableColumn id="2" name="Tag" dataDxfId="1"/>
+    <tableColumn id="3" name="Tempo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -280,7 +276,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +290,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -306,7 +302,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -318,14 +314,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -353,31 +349,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -405,26 +384,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,12 +535,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AAF406-94ED-40BD-B78E-EA20D6CDDC89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan11"/>
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -669,8 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE4FC69-4532-4CD5-BB44-041066C2AE42}">
-  <sheetPr codeName="Planilha1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
